--- a/Daily Attandance record/Upto 15April/March_April/3april.xlsx
+++ b/Daily Attandance record/Upto 15April/March_April/3april.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\March_April\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Daily Attandance record\Upto 15April\March_April\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A4CDDA-6873-46DA-A811-0C6CC7FEFBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F942747-C0E2-449A-9915-2F8BFED5AA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="180" windowWidth="17544" windowHeight="12060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="474">
   <si>
     <t>SN</t>
   </si>
@@ -1441,6 +1441,12 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>Absent(LEAVE REQUEST NOT SIGNED)</t>
+  </si>
+  <si>
+    <t>PP</t>
   </si>
 </sst>
 </file>
@@ -6025,14 +6031,14 @@
   <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+      <selection activeCell="E256" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6112,7 +6118,7 @@
         <v>469</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
@@ -9469,7 +9475,7 @@
         <v>4080</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>27</v>
@@ -11060,6 +11066,7 @@
     <filterColumn colId="0">
       <filters>
         <filter val="A"/>
+        <filter val="PP"/>
       </filters>
     </filterColumn>
   </autoFilter>
